--- a/public/upload/export_excel/รายรับรายจ่าย06-2025.xlsx
+++ b/public/upload/export_excel/รายรับรายจ่าย06-2025.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>รายรับ-รายจ่าย</t>
   </si>
   <si>
-    <t>รายงานรายรับ - รายจ่ายประจำ วันที่ 02/07/2025</t>
+    <t>รายงานรายรับ - รายจ่ายประจำ วันที่ 03/07/2025</t>
   </si>
   <si>
     <t>ลำดับ</t>
@@ -50,34 +50,13 @@
     <t>นำเข้าใหม่</t>
   </si>
   <si>
-    <t>A101</t>
+    <t>A102</t>
   </si>
   <si>
     <t>จ่ายบิล</t>
   </si>
   <si>
     <t>วรเวก ชึรัมย์</t>
-  </si>
-  <si>
-    <t>ใบเสร็จค่าเช่าห้อง</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>ใบเสร็จค่าประกันห้อง</t>
-  </si>
-  <si>
-    <t>ใบเสร็จค่าจองห้อง</t>
-  </si>
-  <si>
-    <t>4,000.00</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>1,000.00</t>
   </si>
 </sst>
 </file>
@@ -420,10 +399,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G11"/>
+      <selection activeCell="A1" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,153 +475,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
